--- a/3.4.2_report.xlsx
+++ b/3.4.2_report.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,12 +63,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -752,243 +749,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="2" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Город</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Уровень зарплат</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr"/>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Город</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Доля вакансий</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>76970</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.3246</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>65286</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.1197</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>62254</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.0271</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>60962</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.0237</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>52580</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.0232</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>51644</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Ростов-на-Дону</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.0209</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Челябинск</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>51265</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.0207</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Самара</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>50994</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.0185</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Пермь</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>48089</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Самара</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.0143</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>47662</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Воронеж</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0.0141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>